--- a/PayrollProject/templates/ApprenticeshipLevyInputSheet.xlsx
+++ b/PayrollProject/templates/ApprenticeshipLevyInputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6E3D1F-0E40-4552-982F-69009EFCDDD3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D975F697-7C4B-4223-B6E5-4A72863355E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="1890" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>EmpName</t>
   </si>
@@ -108,13 +108,49 @@
   </si>
   <si>
     <t>DO NOT AppLevy NMJuneEPS</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 789</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 790</t>
+  </si>
+  <si>
+    <t>2496000</t>
+  </si>
+  <si>
+    <t>1248000</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Payroll_NormalWeekly</t>
+  </si>
+  <si>
+    <t>Week-1</t>
+  </si>
+  <si>
+    <t>Week-2</t>
+  </si>
+  <si>
+    <t>DO NOT AprnticLevy NWWeekOne</t>
+  </si>
+  <si>
+    <t>DO NOT AprnticLevy NWWeekTwo</t>
+  </si>
+  <si>
+    <t>DO NOT AppLevy NWWeekOneEPS</t>
+  </si>
+  <si>
+    <t>DO NOT AppLevy NWWeekTwoEPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +193,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -205,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -242,6 +284,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -559,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,24 +738,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,9 +778,72 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT AprnticLevy NMApril" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JzhCEAS/view?queryScope=userFolders" xr:uid="{A29B5E13-EDC1-4493-87C4-8B2DA3D3F1BE}"/>
+    <hyperlink ref="H2" r:id="rId2" tooltip="DO NOT AppLevy NMAprlEPS" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000K0PYEA0/view?queryScope=userFolders" xr:uid="{46D023B1-57FF-4CD9-B3EA-551669B180F8}"/>
+    <hyperlink ref="E2" r:id="rId3" location="/alohaRedirect/a0m1q000001COVWAA4" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000001COVWAA4" xr:uid="{80C4DC2A-3451-4225-B03B-DF56EE327B06}"/>
+    <hyperlink ref="E3" r:id="rId4" location="/alohaRedirect/a0m1q000001COVWAA4" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000001COVWAA4" xr:uid="{72A3FD4A-6C74-472D-954F-8FA806012D4D}"/>
+    <hyperlink ref="H3" r:id="rId5" tooltip="DO NOT AppLevy NMAprlEPS" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000K0PYEA0/view?queryScope=userFolders" xr:uid="{F412C757-3CE7-4588-8E31-DA962BB478C9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/PayrollProject/templates/ApprenticeshipLevyInputSheet.xlsx
+++ b/PayrollProject/templates/ApprenticeshipLevyInputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D975F697-7C4B-4223-B6E5-4A72863355E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D294D-BD2E-4484-BC9F-325C74791162}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1890" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
